--- a/tests/artifact/data/Mobile-Ledger.data.xlsx
+++ b/tests/artifact/data/Mobile-Ledger.data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="221">
   <si>
     <t>login.screen</t>
   </si>
@@ -184,7 +184,19 @@
     <t>org.open</t>
   </si>
   <si>
-    <t>//button[text()=' Open ']</t>
+    <t>(//button[text()=' Open '])[79]</t>
+  </si>
+  <si>
+    <t>Org.locator</t>
+  </si>
+  <si>
+    <t>//tr/td[text()=' ']/parent::tr/td[@aria-colindex="4"]/button</t>
+  </si>
+  <si>
+    <t>Org.Name</t>
+  </si>
+  <si>
+    <t>LedgerTesting</t>
   </si>
   <si>
     <t>org.hamburger</t>
@@ -436,13 +448,21 @@
     <t>account.selectField</t>
   </si>
   <si>
-    <t>//div[@class='card-body']/fieldset/div/div/div/input[@placeholder='select account']</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>//legend[text()='Account name']/parent::div/div//input[@placeholder="select account"]</t>
+    </r>
   </si>
   <si>
     <t>enter.accountValue</t>
   </si>
   <si>
-    <t>Bank A/C</t>
+    <t>Sri Krishna Fancy Store</t>
   </si>
   <si>
     <t>click.monthlyLedger</t>
@@ -583,106 +603,109 @@
     <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr</t>
   </si>
   <si>
-    <t>la.date</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[1]/div</t>
-  </si>
-  <si>
-    <t>la.voucherNo</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[2]/div</t>
-  </si>
-  <si>
-    <t>la.status</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[3]/div</t>
-  </si>
-  <si>
-    <t>la.type</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[4]/div</t>
-  </si>
-  <si>
-    <t>la.particular</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[5]/div</t>
-  </si>
-  <si>
-    <t>la.debit</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[6]/div</t>
-  </si>
-  <si>
-    <t>la.credit</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[7]/div</t>
-  </si>
-  <si>
-    <t>la.balance</t>
-  </si>
-  <si>
-    <t>//main[@class='mb-5']/section/div/div[2]/table/thead/tr/th[8]/div</t>
-  </si>
-  <si>
-    <t>la.date.values</t>
-  </si>
-  <si>
-    <t>/td[1]</t>
-  </si>
-  <si>
-    <t>la.voucherNo.values</t>
-  </si>
-  <si>
-    <t>/td[2]</t>
-  </si>
-  <si>
-    <t>la.status.values</t>
-  </si>
-  <si>
-    <t>/td[3]</t>
-  </si>
-  <si>
-    <t>la.type.values</t>
-  </si>
-  <si>
-    <t>/td[4]</t>
-  </si>
-  <si>
-    <t>la.particular.values</t>
-  </si>
-  <si>
-    <t>/td[5]</t>
-  </si>
-  <si>
-    <t>la.debit.values</t>
-  </si>
-  <si>
-    <t>/td[6]</t>
-  </si>
-  <si>
-    <t>la.credit.values</t>
-  </si>
-  <si>
-    <t>/td[7]</t>
-  </si>
-  <si>
-    <t>la.balance.values</t>
-  </si>
-  <si>
-    <t>/td[8]</t>
-  </si>
-  <si>
     <t>ledger.showbutton</t>
   </si>
   <si>
     <t>//div[@class='card-body']/fieldset/div/div/div/div/button</t>
+  </si>
+  <si>
+    <t>ledger.costCenter.linkText</t>
+  </si>
+  <si>
+    <t>//div/fieldset[2]/fieldset/div/div/a/span</t>
+  </si>
+  <si>
+    <t>Account.valueSelect</t>
+  </si>
+  <si>
+    <t>//button/div[contains(text(),' ')]</t>
+  </si>
+  <si>
+    <t>Ledger.List.Heading</t>
+  </si>
+  <si>
+    <t>//*[@class='bg-dark mb-4']/h6</t>
+  </si>
+  <si>
+    <t>type.searchValue</t>
+  </si>
+  <si>
+    <t>//input[@placeholder='Search Ledger']</t>
+  </si>
+  <si>
+    <t>Search.Values.Ledger</t>
+  </si>
+  <si>
+    <t>rt3</t>
+  </si>
+  <si>
+    <t>present.search.values</t>
+  </si>
+  <si>
+    <t>//tbody[@role='rowgroup']/tr[1]/td[2]/a</t>
+  </si>
+  <si>
+    <t>empty.search</t>
+  </si>
+  <si>
+    <t>Ledger.table.row.xpath</t>
+  </si>
+  <si>
+    <t>//tbody[@role='rowgroup']/tr</t>
+  </si>
+  <si>
+    <t>ledger.voucher.No</t>
+  </si>
+  <si>
+    <t>/td[2]/a</t>
+  </si>
+  <si>
+    <t>filters.button</t>
+  </si>
+  <si>
+    <t>//button[@id='select']</t>
+  </si>
+  <si>
+    <t>filters.credit</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Credit Only')]</t>
+  </si>
+  <si>
+    <t>filters.Debit</t>
+  </si>
+  <si>
+    <t>//*[contains(text(),'Debit Only')]</t>
+  </si>
+  <si>
+    <t>filters.table</t>
+  </si>
+  <si>
+    <t>//div[@class='popover-body']</t>
+  </si>
+  <si>
+    <t>voucher.no.credit</t>
+  </si>
+  <si>
+    <t>//a[contains(@href,'#/Workflow/Transactions-Voucher/1886')]</t>
+  </si>
+  <si>
+    <t>VN.receipt.page</t>
+  </si>
+  <si>
+    <t>//div[@class='text-md-right col-md-6 order-md-2 col-12 order-1']//tbody/tr[1]/td[2]</t>
+  </si>
+  <si>
+    <t>voucher.no.debit</t>
+  </si>
+  <si>
+    <t>//a[contains(@href,'#/Workflow/Transactions')]</t>
+  </si>
+  <si>
+    <t>goBack.button</t>
+  </si>
+  <si>
+    <t>//button[@class='btn d-md-none float-left btn-secondary btn-sm']</t>
   </si>
 </sst>
 </file>
@@ -1450,13 +1473,27 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b val="1"/>
-        <i val="0"/>
-        <color theme="1"/>
+        <b val="0"/>
+        <i val="1"/>
+        <strike val="0"/>
+        <color theme="0" tint="-0.349986266670736"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.14996795556505"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.249946592608417"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4" tint="0.599963377788629"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1476,25 +1513,25 @@
       <font>
         <b val="1"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="4" tint="-0.249946592608417"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="4" tint="0.599963377788629"/>
+          <bgColor theme="0" tint="-0.14996795556505"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b val="1"/>
         <i val="1"/>
         <strike val="0"/>
-        <color theme="0" tint="-0.349986266670736"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="2"/>
+          <bgColor theme="0" tint="-0.0499893185216834"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1509,20 +1546,6 @@
       <numFmt numFmtId="49" formatCode="@"/>
       <fill>
         <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <i val="1"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.0499893185216834"/>
-        </patternFill>
       </fill>
     </dxf>
   </dxfs>
@@ -1806,10 +1829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="125" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7" defaultRowHeight="16" outlineLevelCol="2"/>
@@ -2257,23 +2280,23 @@
         <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" ht="23.1" customHeight="1" spans="1:2">
       <c r="A56" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" ht="23.1" customHeight="1" spans="1:2">
       <c r="A57" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" ht="23.1" customHeight="1" spans="1:2">
@@ -2284,60 +2307,60 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" ht="23.1" customHeight="1" spans="1:3">
+    <row r="59" ht="23.1" customHeight="1" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="60" ht="23.1" customHeight="1" spans="1:2">
       <c r="A60" s="4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" ht="23.1" customHeight="1" spans="1:2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" ht="23.1" customHeight="1" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>87</v>
+        <v>120</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62" ht="23.1" customHeight="1" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" ht="23.1" customHeight="1" spans="1:2">
       <c r="A63" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A64" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="65" ht="23.1" customHeight="1" spans="1:2">
+      <c r="A65" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>123</v>
@@ -2395,7 +2418,7 @@
       <c r="A72" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2595,7 +2618,7 @@
       <c r="A97" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="8" t="s">
         <v>187</v>
       </c>
     </row>
@@ -2647,237 +2670,266 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B111" s="8" t="s">
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
         <v>215</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" deleteColumns="0" deleteRows="0" sort="0"/>
   <conditionalFormatting sqref="A25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="22" stopIfTrue="1">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A25,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="28" stopIfTrue="1">
       <formula>LEN(TRIM(A25))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="21" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A25,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="20" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A25,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="19" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A25,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="24">
+    <cfRule type="expression" dxfId="4" priority="29" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="30">
       <formula>LEN(TRIM(B25))&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="23" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="beginsWith" dxfId="3" priority="37" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A26,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="40" stopIfTrue="1">
-      <formula>LEN(TRIM(A26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="5" priority="41" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="42">
-      <formula>LEN(TRIM(B26))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="beginsWith" dxfId="3" priority="31" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A27,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A27,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A27,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="34" stopIfTrue="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
-    <cfRule type="expression" dxfId="5" priority="35" stopIfTrue="1">
-      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="36">
-      <formula>LEN(TRIM(B27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="beginsWith" dxfId="3" priority="25" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A28,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="26" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A28,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="27" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A28,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="46" stopIfTrue="1">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="expression" dxfId="5" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="47" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="30">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="48">
       <formula>LEN(TRIM(B28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4" stopIfTrue="1">
-      <formula>LEN(TRIM(A94))&gt;0</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A94,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A94,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="1" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A94,LEN("//"))="//"</formula>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A29,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A29,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A29,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="40" stopIfTrue="1">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A95">
-    <cfRule type="beginsWith" dxfId="3" priority="5" stopIfTrue="1" operator="equal" text="//">
-      <formula>LEFT(A95,LEN("//"))="//"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="nexial.scope.">
-      <formula>LEFT(A95,LEN("nexial.scope."))="nexial.scope."</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="equal" text="nexial.">
-      <formula>LEFT(A95,LEN("nexial."))="nexial."</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="8" stopIfTrue="1">
-      <formula>LEN(TRIM(A95))&gt;0</formula>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="expression" dxfId="4" priority="41" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="42">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A30,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A30,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A30,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="34" stopIfTrue="1">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30">
+    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="36">
+      <formula>LEN(TRIM(B30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A96,LEN("//"))="//"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A96,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A96,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>LEN(TRIM(A96))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A3">
-    <cfRule type="beginsWith" dxfId="3" priority="43" stopIfTrue="1" operator="equal" text="//">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A1,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="44" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="45" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="46" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="52" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:A27">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4" stopIfTrue="1">
+      <formula>LEN(TRIM(A26))&gt;0</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="nexial.">
+      <formula>LEFT(A26,LEN("nexial."))="nexial."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="nexial.scope.">
+      <formula>LEFT(A26,LEN("nexial.scope."))="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="//">
+      <formula>LEFT(A26,LEN("//"))="//"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="expression" dxfId="5" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="53" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="48">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="54">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B21">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="16">
       <formula>LEN(TRIM(B20))&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="15" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E3 B4:E19 C20:E21 B22:E24 C25:E63 B29:B39 B41:B63 B64:E1048576">
-    <cfRule type="expression" dxfId="5" priority="53" stopIfTrue="1">
+  <conditionalFormatting sqref="B26:B27">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(B26))&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="56">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:E3 B4:E19 C20:E21 B22:E24 C25:E1048576 B102:B1048576 B31:B41 B43:B100">
+    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1),13)="nexial.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="5" priority="62">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A24 A29:A93 A96:A1048576">
-    <cfRule type="beginsWith" dxfId="3" priority="49" stopIfTrue="1" operator="equal" text="//">
+  <conditionalFormatting sqref="A4:A24 A31:A95 A97:A1048576">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="//">
       <formula>LEFT(A4,LEN("//"))="//"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="50" stopIfTrue="1" operator="equal" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="nexial.scope.">
       <formula>LEFT(A4,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="51" stopIfTrue="1" operator="equal" text="nexial.">
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="nexial.">
       <formula>LEFT(A4,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="52" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="58" stopIfTrue="1">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
